--- a/0201_0207/JaredKeefer.xlsx
+++ b/0201_0207/JaredKeefer.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Classes\Capstone\Project\GitRepo\bison-timesheets\0201_0207\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Classes\Capstone\Project\GitRepo\bison-timesheets\0131_0206\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E986CA5-9D5C-4ABC-8E2A-02AF4392AAA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEFC7851-1747-4165-B899-6E50AC999CEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4875" yWindow="1950" windowWidth="21600" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,7 +92,7 @@
     <t>BI Inc #1 (BISON)</t>
   </si>
   <si>
-    <t>Adjust Kafka Solution Topology</t>
+    <t>Implement Kafka Temporal and Geospatial Infrastructure</t>
   </si>
 </sst>
 </file>
@@ -502,13 +502,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="1" max="1" width="52.5703125" customWidth="1"/>
     <col min="2" max="8" width="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.140625" customWidth="1"/>
@@ -573,25 +573,25 @@
         <v>2</v>
       </c>
       <c r="B5" s="12">
-        <v>44094</v>
+        <v>44227</v>
       </c>
       <c r="C5" s="12">
-        <v>44095</v>
+        <v>44228</v>
       </c>
       <c r="D5" s="12">
-        <v>44096</v>
+        <v>44229</v>
       </c>
       <c r="E5" s="12">
-        <v>44097</v>
+        <v>44230</v>
       </c>
       <c r="F5" s="12">
-        <v>44098</v>
+        <v>44231</v>
       </c>
       <c r="G5" s="12">
-        <v>44099</v>
+        <v>44232</v>
       </c>
       <c r="H5" s="13">
-        <v>44100</v>
+        <v>44233</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>5</v>
@@ -619,18 +619,22 @@
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="4"/>
       <c r="I7" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J7" s="2"/>
     </row>
@@ -641,15 +645,15 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1">
-        <v>3</v>
-      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="4"/>
       <c r="I8" s="5">
         <f t="shared" ref="I8" si="1">SUM(B8:H8)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J8" s="2"/>
     </row>
@@ -659,16 +663,14 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
+      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="4"/>
       <c r="I9" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="2"/>
     </row>
@@ -677,17 +679,21 @@
         <v>19</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1">
-        <v>6</v>
-      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="4"/>
+      <c r="G10" s="1">
+        <v>4</v>
+      </c>
+      <c r="H10" s="4">
+        <v>3</v>
+      </c>
       <c r="I10" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J10" s="2"/>
     </row>
@@ -772,31 +778,31 @@
       </c>
       <c r="B16" s="5">
         <f>SUM(B6:B15)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" ref="C16:H16" si="3">SUM(C6:C15)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D16" s="5">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16" s="5">
         <f>SUM(I6:I15)</f>

--- a/0201_0207/JaredKeefer.xlsx
+++ b/0201_0207/JaredKeefer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Classes\Capstone\Project\GitRepo\bison-timesheets\0131_0206\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Classes\Capstone\Project\GitRepo\bison-timesheets\0201_0207\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEFC7851-1747-4165-B899-6E50AC999CEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D2CCCF-F3AB-4ADB-844B-2E99535D23B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4875" yWindow="1950" windowWidth="21600" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5220" yWindow="2295" windowWidth="21600" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -503,7 +503,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,25 +573,25 @@
         <v>2</v>
       </c>
       <c r="B5" s="12">
-        <v>44227</v>
+        <v>44228</v>
       </c>
       <c r="C5" s="12">
-        <v>44228</v>
+        <v>44229</v>
       </c>
       <c r="D5" s="12">
-        <v>44229</v>
+        <v>44230</v>
       </c>
       <c r="E5" s="12">
-        <v>44230</v>
+        <v>44231</v>
       </c>
       <c r="F5" s="12">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="G5" s="12">
-        <v>44232</v>
+        <v>44233</v>
       </c>
       <c r="H5" s="13">
-        <v>44233</v>
+        <v>44234</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>5</v>
